--- a/config_multi.xls/game_type.xlsx
+++ b/config_multi.xls/game_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73649E43-5F99-496D-A698-B69327AB38F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0FDD9-F386-42DD-B300-340C4BA33BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -4734,9 +4734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -6875,10 +6875,13 @@
         <v>1</v>
       </c>
       <c r="L42" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" s="3">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -6927,8 +6930,8 @@
       <c r="M43">
         <v>5</v>
       </c>
-      <c r="N43" t="s">
-        <v>68</v>
+      <c r="N43" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="P43">
         <v>1</v>

--- a/config_multi.xls/game_type.xlsx
+++ b/config_multi.xls/game_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0FDD9-F386-42DD-B300-340C4BA33BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC63ECEA-DEE0-4D18-A747-2BC687799905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
   <si>
     <t>id</t>
   </si>
@@ -678,6 +678,14 @@
   </si>
   <si>
     <t>match_coin_table</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rummy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm_room</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4732,11 +4740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -6940,6 +6948,56 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>185</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
